--- a/biology/Botanique/Parc_Phœnix/Parc_Phœnix.xlsx
+++ b/biology/Botanique/Parc_Phœnix/Parc_Phœnix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_Ph%C5%93nix</t>
+          <t>Parc_Phœnix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Phœnix est un parc botanique et zoologique situé à Nice, dans le département des Alpes-Maritimes, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_Ph%C5%93nix</t>
+          <t>Parc_Phœnix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Localisation et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à l'entrée sud-ouest de Nice, dans le quartier de l'Arénas, le long de la promenade des Anglais, il s'étend sur plus de sept hectares disposés autour d'une pièce d'eau centrale. Il a été ouvert en février 1990. L'entrée est payante (5 euros  et 3 euros pour les habitants de la métropole Nice Côte d'Azur), mais la gratuité est accordée pour les moins de 12 ans (dans la limite de 3 enfants maximum par adulte payant).  
 Le parc dispose d'une vingtaine de zones à thème incluant serre tropicale, étangs, jardins méditerranéens, ainsi que plusieurs espaces réservés aux animaux, comptant au total près de 2 500 espèces végétales. 
-La communauté urbaine Nice Côte d'Azur a établi son siège dans un bâtiment situé sur le côté nord du parc. C'est notamment là que se réunissait le conseil communautaire avant d'investir le centre universitaire méditerranéen en décembre 2010. Dès sa création, le 31 décembre 2011, la métropole Nice Côte d'Azur y a également établi son siège social[2].
+La communauté urbaine Nice Côte d'Azur a établi son siège dans un bâtiment situé sur le côté nord du parc. C'est notamment là que se réunissait le conseil communautaire avant d'investir le centre universitaire méditerranéen en décembre 2010. Dès sa création, le 31 décembre 2011, la métropole Nice Côte d'Azur y a également établi son siège social.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_Ph%C5%93nix</t>
+          <t>Parc_Phœnix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Jardins extérieurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc se compose en plus de la grande serre d'un ensemble de jardins qui s'articulent autour d'un immense bassin, où vivent librement pélicans, cygnes, oies, canards et tortues. D'autres animaux existent dans le parc mais sont en cage. On retrouve de nombreux volatiles : rapaces diurnes ou nocturnes, grues couronnées, nandous, aras, ainsi que des mammifères : wallabys, chiens de prairie, loutres, porcs-épics, etc. La plupart des animaux proviennent de saisies chez des particuliers[3]. Les jardins présentent des espaces aménagés dans un but ornemental mélangeant des plantes méditerranéennes (lauriers roses, Phoenix, Washingtonia, lavandes, plantes bulbeuses, etc.) et plantes succulentes (cactus, euphorbes, aloès, agaves, etc.). Les plantes potagères inclut notamment des plantes méditerranéennes : oliviers, orangers, herbes aromatiques. Une portion des jardins donnant sur le bassin compte plusieurs espèces primitives comme les araucarias appelée l'île des temps révolus. À proximité se trouve une bambouseraie. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc se compose en plus de la grande serre d'un ensemble de jardins qui s'articulent autour d'un immense bassin, où vivent librement pélicans, cygnes, oies, canards et tortues. D'autres animaux existent dans le parc mais sont en cage. On retrouve de nombreux volatiles : rapaces diurnes ou nocturnes, grues couronnées, nandous, aras, ainsi que des mammifères : wallabys, chiens de prairie, loutres, porcs-épics, etc. La plupart des animaux proviennent de saisies chez des particuliers. Les jardins présentent des espaces aménagés dans un but ornemental mélangeant des plantes méditerranéennes (lauriers roses, Phoenix, Washingtonia, lavandes, plantes bulbeuses, etc.) et plantes succulentes (cactus, euphorbes, aloès, agaves, etc.). Les plantes potagères inclut notamment des plantes méditerranéennes : oliviers, orangers, herbes aromatiques. Une portion des jardins donnant sur le bassin compte plusieurs espèces primitives comme les araucarias appelée l'île des temps révolus. À proximité se trouve une bambouseraie. 
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_Ph%C5%93nix</t>
+          <t>Parc_Phœnix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>La serre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Point névralgique du parc, la serre, d'une superficie de 7 000 mètres carrés pour 25 mètres de haut, une des plus grandes d'Europe, compte sept espaces distincts. 
 On y trouve dans une atmosphère tropicale humide une forêt de fougères arborescentes, une très vaste collection d’orchidées (vanda, dendrobium, phalaenopsis, paphiopedilum, oncidium, etc.) et de broméliacées - hybrides et botaniques - le jardin de Louisiane (avec les caïmans à lunettes), le jardin de Thaïlande. On trouve un grand nombre de plantes de groupes divers : hibiscus, palmiers, aracées, aristoloches, plantes carnivores, ficus, heliconia, bananiers, acacias, etc. Le jardin d’Afrique australe expose des végétaux de climat aride et méditerranéen chaud incluant aloès, euphorbes, stapelias, plantes bulbeuses et protéacées. En sous-sol on accède à une série d'aquariums et de terrariums incluant poissons tropicaux - d'eau douce et salée, insectes, myriapodes et arachnides. D'autres animaux vivent librement dans la serre comme des canards mandarins, flamants du Chili et iguanes.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_Ph%C5%93nix</t>
+          <t>Parc_Phœnix</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Expositions temporaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Régulièrement, des expositions en rapport avec la nature prennent place au sein du parc. Le parc est d'ailleurs accolé au musée des arts asiatiques de Nice.
 </t>
